--- a/proyecto2/Subredes.xlsx
+++ b/proyecto2/Subredes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Desktop\2023\2S\REDES1\Laboratorio\Repositorio\redes1_pareja33\proyecto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B6953-0236-4D41-9A0C-56D03E417830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B38ECE-B0FA-454D-AAA0-F4A3C7F6B17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1725" windowWidth="17130" windowHeight="12375" activeTab="1" xr2:uid="{852E2FAA-E108-494D-BA55-D4D071125539}"/>
+    <workbookView xWindow="-435" yWindow="1410" windowWidth="17130" windowHeight="12375" activeTab="2" xr2:uid="{852E2FAA-E108-494D-BA55-D4D071125539}"/>
   </bookViews>
   <sheets>
     <sheet name="Central" sheetId="1" r:id="rId1"/>
     <sheet name="Core" sheetId="2" r:id="rId2"/>
+    <sheet name="VillaNueva" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="100">
   <si>
     <t>VLAN</t>
   </si>
@@ -241,6 +242,102 @@
   </si>
   <si>
     <t>10.0.0.11</t>
+  </si>
+  <si>
+    <t>Sede VillaNueva</t>
+  </si>
+  <si>
+    <t>Conexion VillaNueva</t>
+  </si>
+  <si>
+    <t>11.0.0.0/28</t>
+  </si>
+  <si>
+    <t>11.0.0.0</t>
+  </si>
+  <si>
+    <t>11.0.0.1</t>
+  </si>
+  <si>
+    <t>11.0.0.2</t>
+  </si>
+  <si>
+    <t>11.0.0.3</t>
+  </si>
+  <si>
+    <t>11.0.0.7</t>
+  </si>
+  <si>
+    <t>11.0.0.6</t>
+  </si>
+  <si>
+    <t>11.0.0.5</t>
+  </si>
+  <si>
+    <t>11.0.0.4</t>
+  </si>
+  <si>
+    <t>VillaNueva - VN_1</t>
+  </si>
+  <si>
+    <t>VillaNueva - VN_2</t>
+  </si>
+  <si>
+    <t>173.133.2.0/24</t>
+  </si>
+  <si>
+    <t>173.133.2.0</t>
+  </si>
+  <si>
+    <t>173.133.2.1</t>
+  </si>
+  <si>
+    <t>173.133.2.254</t>
+  </si>
+  <si>
+    <t>173.133.2.255</t>
+  </si>
+  <si>
+    <t>173.133.2.30</t>
+  </si>
+  <si>
+    <t>173.133.2.31</t>
+  </si>
+  <si>
+    <t>173.133.2.32</t>
+  </si>
+  <si>
+    <t>173.133.2.33</t>
+  </si>
+  <si>
+    <t>173.133.2.46</t>
+  </si>
+  <si>
+    <t>173.133.2.47</t>
+  </si>
+  <si>
+    <t>173.133.2.48</t>
+  </si>
+  <si>
+    <t>173.133.2.49</t>
+  </si>
+  <si>
+    <t>173.133.2.62</t>
+  </si>
+  <si>
+    <t>173.133.2.63</t>
+  </si>
+  <si>
+    <t>173.133.2.64</t>
+  </si>
+  <si>
+    <t>173.133.2.65</t>
+  </si>
+  <si>
+    <t>173.133.2.70</t>
+  </si>
+  <si>
+    <t>173.133.2.71</t>
   </si>
 </sst>
 </file>
@@ -614,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9C8E09-303D-4A6C-B62F-B99CC6624F15}">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9053ADE3-065A-4995-8205-A16606F79436}">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,4 +1198,367 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D34039-D053-47F6-8C6E-37B8EEBAFB2E}">
+  <dimension ref="A2:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>SUM(D5:D8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>